--- a/app/src/main/assets/foodList/foods_original.xlsx
+++ b/app/src/main/assets/foodList/foods_original.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="525">
   <si>
     <t>Food (English)</t>
   </si>
@@ -1541,15 +1541,6 @@
     <t>ទឹកតែគឺមិនល្អសម្រាប់កុមារតូចដូចរូបខ្ញុំទេ។ វាអាចរំខានដល់ការគេងរបស់ខ្ញុំ។ ខ្ញុំចូលចិត្តទឹកនិងទឹកដោះម្តាយជាងទឹកតែ</t>
   </si>
   <si>
-    <t>ភេសជ្ជៈ</t>
-  </si>
-  <si>
-    <t>Soft drinks are not good for me! It contains too much sugar and chemicals! I prefer water and breastmilk!</t>
-  </si>
-  <si>
-    <t>ភេសជ្ជៈគឺមិនល្អសម្រាប់ខ្ញុំទេ! ពួកវាមានផ្ទុកជាតិផ្អែម និង គីមីច្រើនណាស់។ ខ្ញុំចូលចិត្តទឹកនិងទឹកដោះម្តាយជាងភេសជ្ជៈ</t>
-  </si>
-  <si>
     <t>ទឹឹក</t>
   </si>
   <si>
@@ -1569,18 +1560,77 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ស៊ុត</t>
+  </si>
+  <si>
+    <t>ថ្លើម</t>
+  </si>
+  <si>
+    <t>ស្ករ</t>
+  </si>
+  <si>
+    <t>អំបិល</t>
+  </si>
+  <si>
+    <t>ទឹកឃ្មុំ</t>
+  </si>
+  <si>
+    <t>ប៊ីចេង</t>
+  </si>
+  <si>
+    <t>sugar.jpg</t>
+  </si>
+  <si>
+    <t>tea.jpg</t>
+  </si>
+  <si>
+    <t>water.jpg</t>
+  </si>
+  <si>
+    <t>carrot.jpg</t>
+  </si>
+  <si>
+    <t>duck.jpg</t>
+  </si>
+  <si>
+    <t>chicken.jpg</t>
+  </si>
+  <si>
+    <t>beef.jpg</t>
+  </si>
+  <si>
+    <t>egg.jpg</t>
+  </si>
+  <si>
+    <t>milk.jpg</t>
+  </si>
+  <si>
+    <t>What foods will I eat today?</t>
+  </si>
+  <si>
+    <t>តើមានប្រភេទអាហារណាខ្លះដែលខ្ញុំនិងញាំនៅថ្ងៃនេះ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1604,9 +1654,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1663,8 +1716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J127" tableType="xml" totalsRowShown="0" headerRowDxfId="0" connectionId="4">
-  <autoFilter ref="A1:J127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J126" tableType="xml" totalsRowShown="0" headerRowDxfId="0" connectionId="4">
+  <autoFilter ref="A1:J126"/>
   <sortState ref="A2:I122">
     <sortCondition ref="C1:C122"/>
   </sortState>
@@ -1968,26 +2021,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112:J115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="81.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,10 +2069,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2036,22 +2089,22 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2068,22 +2121,22 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2100,22 +2153,22 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>454</v>
       </c>
@@ -2132,22 +2185,22 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2164,13 +2217,13 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>455</v>
@@ -2179,7 +2232,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,22 +2249,22 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2228,22 +2281,22 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2260,22 +2313,22 @@
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2292,22 +2345,22 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2324,22 +2377,22 @@
         <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2356,22 +2409,22 @@
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2388,22 +2441,22 @@
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -2420,22 +2473,22 @@
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -2452,22 +2505,22 @@
         <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2484,22 +2537,22 @@
         <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -2516,22 +2569,22 @@
         <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2548,22 +2601,22 @@
         <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -2580,22 +2633,22 @@
         <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2612,22 +2665,22 @@
         <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -2644,22 +2697,22 @@
         <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -2676,22 +2729,22 @@
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -2708,22 +2761,22 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -2740,22 +2793,22 @@
         <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -2772,13 +2825,13 @@
         <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>455</v>
@@ -2787,7 +2840,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -2804,22 +2857,22 @@
         <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2836,13 +2889,13 @@
         <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>457</v>
@@ -2851,7 +2904,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -2868,22 +2921,22 @@
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2900,22 +2953,22 @@
         <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -2932,13 +2985,13 @@
         <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>455</v>
@@ -2947,7 +3000,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -2964,22 +3017,22 @@
         <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -2996,22 +3049,22 @@
         <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -3028,22 +3081,22 @@
         <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
@@ -3060,22 +3113,22 @@
         <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -3092,22 +3145,22 @@
         <v>141</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -3124,22 +3177,22 @@
         <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -3156,22 +3209,22 @@
         <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -3188,22 +3241,22 @@
         <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -3220,22 +3273,22 @@
         <v>157</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
@@ -3252,22 +3305,22 @@
         <v>161</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -3284,22 +3337,22 @@
         <v>165</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -3316,22 +3369,22 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -3348,22 +3401,22 @@
         <v>173</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -3380,22 +3433,22 @@
         <v>178</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
@@ -3412,22 +3465,22 @@
         <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
@@ -3444,22 +3497,22 @@
         <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -3476,22 +3529,22 @@
         <v>190</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -3508,22 +3561,22 @@
         <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -3540,22 +3593,22 @@
         <v>198</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
@@ -3572,45 +3625,45 @@
         <v>202</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>459</v>
@@ -3619,30 +3672,30 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>461</v>
@@ -3651,30 +3704,30 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>510</v>
+      <c r="B53" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>463</v>
@@ -3683,30 +3736,30 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>510</v>
+      <c r="B54" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>466</v>
@@ -3715,7 +3768,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>203</v>
       </c>
@@ -3726,19 +3779,19 @@
         <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>452</v>
@@ -3747,7 +3800,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>207</v>
       </c>
@@ -3758,19 +3811,19 @@
         <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>452</v>
@@ -3779,7 +3832,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>210</v>
       </c>
@@ -3790,19 +3843,19 @@
         <v>205</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>452</v>
@@ -3811,7 +3864,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>213</v>
       </c>
@@ -3822,19 +3875,19 @@
         <v>205</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>452</v>
@@ -3843,7 +3896,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>216</v>
       </c>
@@ -3854,19 +3907,19 @@
         <v>205</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>452</v>
@@ -3875,7 +3928,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>436</v>
       </c>
@@ -3886,19 +3939,19 @@
         <v>205</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>453</v>
@@ -3907,30 +3960,30 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>510</v>
+      <c r="B61" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>452</v>
@@ -3939,30 +3992,30 @@
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>510</v>
+      <c r="B62" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>452</v>
@@ -3971,7 +4024,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -3988,13 +4041,13 @@
         <v>223</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>452</v>
@@ -4003,7 +4056,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>224</v>
       </c>
@@ -4020,13 +4073,13 @@
         <v>227</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>452</v>
@@ -4035,7 +4088,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>228</v>
       </c>
@@ -4052,13 +4105,13 @@
         <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>452</v>
@@ -4067,7 +4120,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>232</v>
       </c>
@@ -4084,13 +4137,13 @@
         <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>452</v>
@@ -4099,7 +4152,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>236</v>
       </c>
@@ -4116,13 +4169,13 @@
         <v>239</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>452</v>
@@ -4131,7 +4184,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>240</v>
       </c>
@@ -4148,13 +4201,13 @@
         <v>242</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>452</v>
@@ -4163,7 +4216,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>440</v>
       </c>
@@ -4174,19 +4227,19 @@
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>452</v>
@@ -4195,7 +4248,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>243</v>
       </c>
@@ -4212,22 +4265,22 @@
         <v>247</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>248</v>
       </c>
@@ -4244,22 +4297,22 @@
         <v>251</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>252</v>
       </c>
@@ -4276,22 +4329,22 @@
         <v>255</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>256</v>
       </c>
@@ -4308,22 +4361,22 @@
         <v>259</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>260</v>
       </c>
@@ -4340,22 +4393,22 @@
         <v>263</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>264</v>
       </c>
@@ -4372,22 +4425,22 @@
         <v>267</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>268</v>
       </c>
@@ -4404,22 +4457,22 @@
         <v>271</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>272</v>
       </c>
@@ -4436,22 +4489,22 @@
         <v>275</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>439</v>
       </c>
@@ -4462,19 +4515,19 @@
         <v>245</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>455</v>
@@ -4483,7 +4536,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>276</v>
       </c>
@@ -4500,22 +4553,22 @@
         <v>279</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>280</v>
       </c>
@@ -4532,22 +4585,22 @@
         <v>283</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>284</v>
       </c>
@@ -4564,13 +4617,13 @@
         <v>287</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>455</v>
@@ -4579,7 +4632,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>288</v>
       </c>
@@ -4596,22 +4649,22 @@
         <v>291</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>292</v>
       </c>
@@ -4628,22 +4681,22 @@
         <v>295</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>296</v>
       </c>
@@ -4660,13 +4713,13 @@
         <v>299</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>473</v>
@@ -4675,7 +4728,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>300</v>
       </c>
@@ -4692,22 +4745,22 @@
         <v>303</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>304</v>
       </c>
@@ -4724,13 +4777,13 @@
         <v>307</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>473</v>
@@ -4739,7 +4792,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>308</v>
       </c>
@@ -4756,22 +4809,22 @@
         <v>311</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>312</v>
       </c>
@@ -4788,22 +4841,22 @@
         <v>315</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>316</v>
       </c>
@@ -4820,22 +4873,22 @@
         <v>319</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>320</v>
       </c>
@@ -4852,22 +4905,22 @@
         <v>323</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>324</v>
       </c>
@@ -4884,13 +4937,13 @@
         <v>327</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>475</v>
@@ -4899,7 +4952,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>328</v>
       </c>
@@ -4916,13 +4969,13 @@
         <v>331</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>475</v>
@@ -4931,7 +4984,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>332</v>
       </c>
@@ -4948,22 +5001,22 @@
         <v>335</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>336</v>
       </c>
@@ -4980,22 +5033,22 @@
         <v>339</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>340</v>
       </c>
@@ -5012,22 +5065,22 @@
         <v>343</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>344</v>
       </c>
@@ -5044,13 +5097,13 @@
         <v>347</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>475</v>
@@ -5059,7 +5112,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>348</v>
       </c>
@@ -5076,13 +5129,13 @@
         <v>351</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>475</v>
@@ -5091,7 +5144,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>352</v>
       </c>
@@ -5108,13 +5161,13 @@
         <v>355</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>475</v>
@@ -5123,7 +5176,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>451</v>
       </c>
@@ -5140,13 +5193,13 @@
         <v>358</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>475</v>
@@ -5155,7 +5208,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>359</v>
       </c>
@@ -5172,22 +5225,22 @@
         <v>362</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>363</v>
       </c>
@@ -5204,13 +5257,13 @@
         <v>366</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>477</v>
@@ -5219,7 +5272,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>367</v>
       </c>
@@ -5236,22 +5289,22 @@
         <v>370</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>371</v>
       </c>
@@ -5268,13 +5321,13 @@
         <v>374</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>477</v>
@@ -5283,7 +5336,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>375</v>
       </c>
@@ -5300,22 +5353,22 @@
         <v>378</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>379</v>
       </c>
@@ -5332,13 +5385,13 @@
         <v>382</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>477</v>
@@ -5347,7 +5400,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>383</v>
       </c>
@@ -5364,22 +5417,22 @@
         <v>386</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>240</v>
       </c>
@@ -5396,22 +5449,22 @@
         <v>387</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>388</v>
       </c>
@@ -5428,13 +5481,13 @@
         <v>391</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>475</v>
@@ -5443,7 +5496,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>392</v>
       </c>
@@ -5460,22 +5513,22 @@
         <v>395</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>396</v>
       </c>
@@ -5492,22 +5545,22 @@
         <v>399</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>400</v>
       </c>
@@ -5524,13 +5577,13 @@
         <v>403</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>475</v>
@@ -5539,7 +5592,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>404</v>
       </c>
@@ -5556,22 +5609,22 @@
         <v>407</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>408</v>
       </c>
@@ -5588,22 +5641,22 @@
         <v>411</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>412</v>
       </c>
@@ -5620,22 +5673,22 @@
         <v>415</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>416</v>
       </c>
@@ -5652,22 +5705,22 @@
         <v>419</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>441</v>
       </c>
@@ -5678,19 +5731,19 @@
         <v>245</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>475</v>
@@ -5699,7 +5752,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>442</v>
       </c>
@@ -5710,19 +5763,19 @@
         <v>245</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>475</v>
@@ -5731,7 +5784,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>443</v>
       </c>
@@ -5742,19 +5795,19 @@
         <v>245</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>475</v>
@@ -5763,7 +5816,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>420</v>
       </c>
@@ -5780,13 +5833,13 @@
         <v>423</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>482</v>
@@ -5795,7 +5848,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>424</v>
       </c>
@@ -5812,13 +5865,13 @@
         <v>427</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>484</v>
@@ -5827,7 +5880,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>428</v>
       </c>
@@ -5844,13 +5897,13 @@
         <v>431</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>486</v>
@@ -5859,7 +5912,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>488</v>
       </c>
@@ -5870,19 +5923,19 @@
         <v>8</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>490</v>
@@ -5891,7 +5944,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>444</v>
       </c>
@@ -5902,19 +5955,19 @@
         <v>435</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F123" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G123" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H123" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>493</v>
@@ -5923,7 +5976,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>445</v>
       </c>
@@ -5934,19 +5987,19 @@
         <v>435</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F124" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G124" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H124" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>496</v>
@@ -5955,7 +6008,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>446</v>
       </c>
@@ -5966,19 +6019,19 @@
         <v>435</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F125" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G125" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H125" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>499</v>
@@ -5987,9 +6040,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>501</v>
@@ -5998,57 +6051,25 @@
         <v>435</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F126" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G126" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H126" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>502</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F127" t="s">
-        <v>508</v>
-      </c>
-      <c r="G127" t="s">
-        <v>508</v>
-      </c>
-      <c r="H127" t="s">
-        <v>508</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/foodList/foods_original.xlsx
+++ b/app/src/main/assets/foodList/foods_original.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1397,12 +1397,6 @@
     <t>Great choice! I will grow fast and strong grow strong!</t>
   </si>
   <si>
-    <t>Be carefull. Shellfish are not recomended for babies less than 1 year.</t>
-  </si>
-  <si>
-    <t>Sweet Corn (corn on the cob)</t>
-  </si>
-  <si>
     <t>Excellent choice! This fruit is full of vitamin A which is good for my eyes and skin.</t>
   </si>
   <si>
@@ -1415,15 +1409,9 @@
     <t>អស្ចារ្យណាស់! ខ្ញុំនិងស្រឡាញ់វា</t>
   </si>
   <si>
-    <t>No need to add sugar in my food.! Fruits and stapples contain enough natural sugar for your baby.</t>
-  </si>
-  <si>
     <t>មិនត្រូវការបន្ថែមស្ករក្នុងអាហាររបស់ខ្ញុំទេ! ផ្លែឈើនិងបាយគឺមានផ្ទុកសារធាតុស្ករធម្មជាតិគ្រប់គ្រាន់សម្រាប់កូនរបស់ខ្ញុំហើយ</t>
   </si>
   <si>
-    <t>Be careful. Dont put too much salt in my food!</t>
-  </si>
-  <si>
     <t>ចូរប្រុងប្រយ័ត្ន!កុំដាក់អំពិលច្រើនពេកនៅក្នុងម្ហូបរបស់ខ្ញុំ</t>
   </si>
   <si>
@@ -1496,9 +1484,6 @@
     <t>អាហារផ្អែមៗគឺមិនល្អសម្រាប់ខ្ញុំទេ!វាមានផ្ទុកសារធាតុខ្លាញ់ និងអំបិលច្រើនណាស់! គួរជំនួសដោយផ្លែឈើ ឬនំប័ុង។ ខ្ញុំត្រូវការពួកវាក្នុងកម្រិតសមរម្យ</t>
   </si>
   <si>
-    <t>Be careful! This is not baby food. It contain too much fat and salt. Choose an other staple food.</t>
-  </si>
-  <si>
     <t>ចូរប្រុងប្រយ័ត្ន!នេះមិនមែនជាអាហារសម្រាប់កុមារទេ។ វាមានផ្ទុកសារធាតុខ្លាញ់ និងអំបិលច្រើនណាស់។ គួរជ្រើសរើសយកប្រភេទអាហារផ្សេងវិញ</t>
   </si>
   <si>
@@ -1611,6 +1596,21 @@
   </si>
   <si>
     <t>តើមានប្រភេទអាហារណាខ្លះដែលខ្ញុំនិងញាំនៅថ្ងៃនេះ?</t>
+  </si>
+  <si>
+    <t>Sweet Corn</t>
+  </si>
+  <si>
+    <t>No need to add sugar in my food! Fruits and stapples contain enough natural sugar for your baby.</t>
+  </si>
+  <si>
+    <t>Be careful. Don't put too much salt in my food!</t>
+  </si>
+  <si>
+    <t>Be careful. Shellfish are not recomended for babies less than 1 year.</t>
+  </si>
+  <si>
+    <t>Be careful! This is not baby food. It contains too much fat and salt. Choose an other staple food.</t>
   </si>
 </sst>
 </file>
@@ -2024,23 +2024,23 @@
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112:J115"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.26171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="81.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,10 +2069,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2089,22 +2089,22 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2121,22 +2121,22 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2153,24 +2153,24 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -2185,22 +2185,22 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2217,22 +2217,22 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,22 +2249,22 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2281,22 +2281,22 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2313,22 +2313,22 @@
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2345,22 +2345,22 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2377,22 +2377,22 @@
         <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2409,22 +2409,22 @@
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2441,22 +2441,22 @@
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -2473,22 +2473,22 @@
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -2505,22 +2505,22 @@
         <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2537,22 +2537,22 @@
         <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -2569,22 +2569,22 @@
         <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -2601,22 +2601,22 @@
         <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -2633,22 +2633,22 @@
         <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2665,22 +2665,22 @@
         <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -2697,22 +2697,22 @@
         <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -2729,22 +2729,22 @@
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -2761,22 +2761,22 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -2793,22 +2793,22 @@
         <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -2825,22 +2825,22 @@
         <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -2857,22 +2857,22 @@
         <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2889,22 +2889,22 @@
         <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -2921,22 +2921,22 @@
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2953,22 +2953,22 @@
         <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -2985,22 +2985,22 @@
         <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -3017,22 +3017,22 @@
         <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -3049,22 +3049,22 @@
         <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -3081,22 +3081,22 @@
         <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
@@ -3113,22 +3113,22 @@
         <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -3145,22 +3145,22 @@
         <v>141</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -3177,22 +3177,22 @@
         <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -3209,22 +3209,22 @@
         <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -3241,22 +3241,22 @@
         <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -3273,22 +3273,22 @@
         <v>157</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
@@ -3305,22 +3305,22 @@
         <v>161</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -3337,22 +3337,22 @@
         <v>165</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -3369,22 +3369,22 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -3401,22 +3401,22 @@
         <v>173</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -3433,22 +3433,22 @@
         <v>178</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
@@ -3465,22 +3465,22 @@
         <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
@@ -3497,22 +3497,22 @@
         <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>187</v>
       </c>
@@ -3529,22 +3529,22 @@
         <v>190</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -3561,22 +3561,22 @@
         <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -3593,22 +3593,22 @@
         <v>198</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
@@ -3625,150 +3625,150 @@
         <v>202</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>203</v>
       </c>
@@ -3779,28 +3779,28 @@
         <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>207</v>
       </c>
@@ -3811,28 +3811,28 @@
         <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>210</v>
       </c>
@@ -3843,28 +3843,28 @@
         <v>205</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>213</v>
       </c>
@@ -3875,28 +3875,28 @@
         <v>205</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>216</v>
       </c>
@@ -3907,124 +3907,124 @@
         <v>205</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -4041,22 +4041,22 @@
         <v>223</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>224</v>
       </c>
@@ -4073,22 +4073,22 @@
         <v>227</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>228</v>
       </c>
@@ -4105,22 +4105,22 @@
         <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>232</v>
       </c>
@@ -4137,22 +4137,22 @@
         <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>236</v>
       </c>
@@ -4169,22 +4169,22 @@
         <v>239</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>240</v>
       </c>
@@ -4201,54 +4201,54 @@
         <v>242</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>452</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>243</v>
       </c>
@@ -4265,22 +4265,22 @@
         <v>247</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>248</v>
       </c>
@@ -4297,22 +4297,22 @@
         <v>251</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>252</v>
       </c>
@@ -4329,22 +4329,22 @@
         <v>255</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>256</v>
       </c>
@@ -4361,22 +4361,22 @@
         <v>259</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>260</v>
       </c>
@@ -4393,22 +4393,22 @@
         <v>263</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>264</v>
       </c>
@@ -4425,22 +4425,22 @@
         <v>267</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>268</v>
       </c>
@@ -4457,22 +4457,22 @@
         <v>271</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>272</v>
       </c>
@@ -4489,54 +4489,54 @@
         <v>275</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>276</v>
       </c>
@@ -4553,22 +4553,22 @@
         <v>279</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>280</v>
       </c>
@@ -4585,22 +4585,22 @@
         <v>283</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>284</v>
       </c>
@@ -4617,22 +4617,22 @@
         <v>287</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>288</v>
       </c>
@@ -4649,22 +4649,22 @@
         <v>291</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>292</v>
       </c>
@@ -4681,22 +4681,22 @@
         <v>295</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>296</v>
       </c>
@@ -4713,22 +4713,22 @@
         <v>299</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>300</v>
       </c>
@@ -4745,22 +4745,22 @@
         <v>303</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>304</v>
       </c>
@@ -4777,22 +4777,22 @@
         <v>307</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>308</v>
       </c>
@@ -4809,22 +4809,22 @@
         <v>311</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>312</v>
       </c>
@@ -4841,22 +4841,22 @@
         <v>315</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>316</v>
       </c>
@@ -4873,22 +4873,22 @@
         <v>319</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>320</v>
       </c>
@@ -4905,22 +4905,22 @@
         <v>323</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>324</v>
       </c>
@@ -4937,22 +4937,22 @@
         <v>327</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>328</v>
       </c>
@@ -4969,22 +4969,22 @@
         <v>331</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>332</v>
       </c>
@@ -5001,22 +5001,22 @@
         <v>335</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>336</v>
       </c>
@@ -5033,22 +5033,22 @@
         <v>339</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>340</v>
       </c>
@@ -5065,22 +5065,22 @@
         <v>343</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>344</v>
       </c>
@@ -5097,22 +5097,22 @@
         <v>347</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>348</v>
       </c>
@@ -5129,22 +5129,22 @@
         <v>351</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>352</v>
       </c>
@@ -5161,22 +5161,22 @@
         <v>355</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>451</v>
       </c>
@@ -5193,22 +5193,22 @@
         <v>358</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>359</v>
       </c>
@@ -5225,22 +5225,22 @@
         <v>362</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>363</v>
       </c>
@@ -5257,22 +5257,22 @@
         <v>366</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>367</v>
       </c>
@@ -5289,22 +5289,22 @@
         <v>370</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>371</v>
       </c>
@@ -5321,22 +5321,22 @@
         <v>374</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>375</v>
       </c>
@@ -5353,22 +5353,22 @@
         <v>378</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>379</v>
       </c>
@@ -5385,22 +5385,22 @@
         <v>382</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>383</v>
       </c>
@@ -5417,22 +5417,22 @@
         <v>386</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>240</v>
       </c>
@@ -5449,22 +5449,22 @@
         <v>387</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>388</v>
       </c>
@@ -5481,22 +5481,22 @@
         <v>391</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>392</v>
       </c>
@@ -5513,22 +5513,22 @@
         <v>395</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>396</v>
       </c>
@@ -5545,22 +5545,22 @@
         <v>399</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>400</v>
       </c>
@@ -5577,22 +5577,22 @@
         <v>403</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>404</v>
       </c>
@@ -5609,22 +5609,22 @@
         <v>407</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>408</v>
       </c>
@@ -5641,22 +5641,22 @@
         <v>411</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>412</v>
       </c>
@@ -5673,22 +5673,22 @@
         <v>415</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>416</v>
       </c>
@@ -5705,118 +5705,118 @@
         <v>419</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>420</v>
       </c>
@@ -5833,22 +5833,22 @@
         <v>423</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>424</v>
       </c>
@@ -5865,22 +5865,22 @@
         <v>427</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>428</v>
       </c>
@@ -5897,179 +5897,179 @@
         <v>431</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F123" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G123" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H123" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F124" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G124" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H124" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F125" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G125" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H125" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F126" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G126" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H126" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/foodList/foods_original.xlsx
+++ b/app/src/main/assets/foodList/foods_original.xlsx
@@ -1529,88 +1529,88 @@
     <t>ទឹឹក</t>
   </si>
   <si>
+    <t>សូមចង់ចាំថាត្រូវផ្តល់ទឹកស្អាតដល់ខ្ញុំ! ត្រូវចាំថាទឹកត្រូវដាំឆ្អិន បន្ទាប់មកទុកអោយត្រជាក់នៅក្នុងបន្ទប់មួយដែលងាយស្រួលអាចប្រើប្រាស់បានឬច្រកក្នុងដបអោយបានត្រឹមត្រូវ</t>
+  </si>
+  <si>
+    <t>Special feedback to give when selected? (Khmer)</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ស៊ុត</t>
+  </si>
+  <si>
+    <t>ថ្លើម</t>
+  </si>
+  <si>
+    <t>ស្ករ</t>
+  </si>
+  <si>
+    <t>អំបិល</t>
+  </si>
+  <si>
+    <t>ទឹកឃ្មុំ</t>
+  </si>
+  <si>
+    <t>ប៊ីចេង</t>
+  </si>
+  <si>
+    <t>sugar.jpg</t>
+  </si>
+  <si>
+    <t>tea.jpg</t>
+  </si>
+  <si>
+    <t>water.jpg</t>
+  </si>
+  <si>
+    <t>carrot.jpg</t>
+  </si>
+  <si>
+    <t>duck.jpg</t>
+  </si>
+  <si>
+    <t>chicken.jpg</t>
+  </si>
+  <si>
+    <t>beef.jpg</t>
+  </si>
+  <si>
+    <t>egg.jpg</t>
+  </si>
+  <si>
+    <t>milk.jpg</t>
+  </si>
+  <si>
+    <t>What foods will I eat today?</t>
+  </si>
+  <si>
+    <t>តើមានប្រភេទអាហារណាខ្លះដែលខ្ញុំនិងញាំនៅថ្ងៃនេះ?</t>
+  </si>
+  <si>
+    <t>Sweet Corn</t>
+  </si>
+  <si>
+    <t>No need to add sugar in my food! Fruits and stapples contain enough natural sugar for your baby.</t>
+  </si>
+  <si>
+    <t>Be careful. Don't put too much salt in my food!</t>
+  </si>
+  <si>
+    <t>Be careful. Shellfish are not recomended for babies less than 1 year.</t>
+  </si>
+  <si>
+    <t>Be careful! This is not baby food. It contains too much fat and salt. Choose an other staple food.</t>
+  </si>
+  <si>
     <t>Remember to give me clean water! Remember the water must be boiled and then cooled down to room temperature. Readily available or filtered bottled water works as well!</t>
-  </si>
-  <si>
-    <t>សូមចង់ចាំថាត្រូវផ្តល់ទឹកស្អាតដល់ខ្ញុំ! ត្រូវចាំថាទឹកត្រូវដាំឆ្អិន បន្ទាប់មកទុកអោយត្រជាក់នៅក្នុងបន្ទប់មួយដែលងាយស្រួលអាចប្រើប្រាស់បានឬច្រកក្នុងដបអោយបានត្រឹមត្រូវ</t>
-  </si>
-  <si>
-    <t>Special feedback to give when selected? (Khmer)</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ស៊ុត</t>
-  </si>
-  <si>
-    <t>ថ្លើម</t>
-  </si>
-  <si>
-    <t>ស្ករ</t>
-  </si>
-  <si>
-    <t>អំបិល</t>
-  </si>
-  <si>
-    <t>ទឹកឃ្មុំ</t>
-  </si>
-  <si>
-    <t>ប៊ីចេង</t>
-  </si>
-  <si>
-    <t>sugar.jpg</t>
-  </si>
-  <si>
-    <t>tea.jpg</t>
-  </si>
-  <si>
-    <t>water.jpg</t>
-  </si>
-  <si>
-    <t>carrot.jpg</t>
-  </si>
-  <si>
-    <t>duck.jpg</t>
-  </si>
-  <si>
-    <t>chicken.jpg</t>
-  </si>
-  <si>
-    <t>beef.jpg</t>
-  </si>
-  <si>
-    <t>egg.jpg</t>
-  </si>
-  <si>
-    <t>milk.jpg</t>
-  </si>
-  <si>
-    <t>What foods will I eat today?</t>
-  </si>
-  <si>
-    <t>តើមានប្រភេទអាហារណាខ្លះដែលខ្ញុំនិងញាំនៅថ្ងៃនេះ?</t>
-  </si>
-  <si>
-    <t>Sweet Corn</t>
-  </si>
-  <si>
-    <t>No need to add sugar in my food! Fruits and stapples contain enough natural sugar for your baby.</t>
-  </si>
-  <si>
-    <t>Be careful. Don't put too much salt in my food!</t>
-  </si>
-  <si>
-    <t>Be careful. Shellfish are not recomended for babies less than 1 year.</t>
-  </si>
-  <si>
-    <t>Be careful! This is not baby food. It contains too much fat and salt. Choose an other staple food.</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2023,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
       <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2089,19 +2089,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2121,19 +2121,19 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2153,24 +2153,24 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -2185,19 +2185,19 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2217,13 +2217,13 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>453</v>
@@ -2249,19 +2249,19 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2281,19 +2281,19 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2313,19 +2313,19 @@
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2345,19 +2345,19 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,19 +2377,19 @@
         <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2409,19 +2409,19 @@
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2441,19 +2441,19 @@
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2473,19 +2473,19 @@
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,19 +2505,19 @@
         <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2537,19 +2537,19 @@
         <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2569,19 +2569,19 @@
         <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2601,19 +2601,19 @@
         <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2633,19 +2633,19 @@
         <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2665,19 +2665,19 @@
         <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2697,19 +2697,19 @@
         <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2729,19 +2729,19 @@
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2761,19 +2761,19 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2793,19 +2793,19 @@
         <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2825,13 +2825,13 @@
         <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>453</v>
@@ -2857,19 +2857,19 @@
         <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2889,13 +2889,13 @@
         <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>455</v>
@@ -2921,19 +2921,19 @@
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,19 +2953,19 @@
         <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2985,13 +2985,13 @@
         <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>453</v>
@@ -3017,19 +3017,19 @@
         <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3049,19 +3049,19 @@
         <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3081,19 +3081,19 @@
         <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3113,19 +3113,19 @@
         <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3145,19 +3145,19 @@
         <v>141</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3177,19 +3177,19 @@
         <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3209,19 +3209,19 @@
         <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3241,19 +3241,19 @@
         <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3273,19 +3273,19 @@
         <v>157</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3305,19 +3305,19 @@
         <v>161</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3337,19 +3337,19 @@
         <v>165</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3369,19 +3369,19 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3401,19 +3401,19 @@
         <v>173</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3433,19 +3433,19 @@
         <v>178</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3465,19 +3465,19 @@
         <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3497,19 +3497,19 @@
         <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3529,19 +3529,19 @@
         <v>190</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3561,19 +3561,19 @@
         <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3593,19 +3593,19 @@
         <v>198</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3625,19 +3625,19 @@
         <v>202</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3645,28 +3645,28 @@
         <v>432</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>457</v>
@@ -3677,28 +3677,28 @@
         <v>433</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>458</v>
@@ -3709,25 +3709,25 @@
         <v>434</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>459</v>
@@ -3741,25 +3741,25 @@
         <v>461</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>462</v>
@@ -3779,19 +3779,19 @@
         <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>452</v>
@@ -3811,19 +3811,19 @@
         <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>452</v>
@@ -3843,19 +3843,19 @@
         <v>205</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>452</v>
@@ -3875,19 +3875,19 @@
         <v>205</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>452</v>
@@ -3907,19 +3907,19 @@
         <v>205</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>452</v>
@@ -3939,22 +3939,22 @@
         <v>205</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>466</v>
@@ -3965,25 +3965,25 @@
         <v>437</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>452</v>
@@ -3997,25 +3997,25 @@
         <v>438</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>452</v>
@@ -4041,13 +4041,13 @@
         <v>223</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>452</v>
@@ -4073,13 +4073,13 @@
         <v>227</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>452</v>
@@ -4105,13 +4105,13 @@
         <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>452</v>
@@ -4137,13 +4137,13 @@
         <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>452</v>
@@ -4169,13 +4169,13 @@
         <v>239</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>452</v>
@@ -4201,13 +4201,13 @@
         <v>242</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>452</v>
@@ -4227,19 +4227,19 @@
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>452</v>
@@ -4265,19 +4265,19 @@
         <v>247</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4297,19 +4297,19 @@
         <v>251</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4329,19 +4329,19 @@
         <v>255</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4361,19 +4361,19 @@
         <v>259</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4393,19 +4393,19 @@
         <v>263</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4425,19 +4425,19 @@
         <v>267</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4457,19 +4457,19 @@
         <v>271</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4489,19 +4489,19 @@
         <v>275</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4515,19 +4515,19 @@
         <v>245</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>453</v>
@@ -4553,19 +4553,19 @@
         <v>279</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4585,19 +4585,19 @@
         <v>283</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4617,13 +4617,13 @@
         <v>287</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H81" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>453</v>
@@ -4649,19 +4649,19 @@
         <v>291</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4681,19 +4681,19 @@
         <v>295</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4713,13 +4713,13 @@
         <v>299</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>469</v>
@@ -4745,19 +4745,19 @@
         <v>303</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4777,13 +4777,13 @@
         <v>307</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>469</v>
@@ -4809,19 +4809,19 @@
         <v>311</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4841,19 +4841,19 @@
         <v>315</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4873,19 +4873,19 @@
         <v>319</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4905,19 +4905,19 @@
         <v>323</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4937,13 +4937,13 @@
         <v>327</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>471</v>
@@ -4969,13 +4969,13 @@
         <v>331</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>471</v>
@@ -5001,19 +5001,19 @@
         <v>335</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -5033,19 +5033,19 @@
         <v>339</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -5065,19 +5065,19 @@
         <v>343</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -5097,13 +5097,13 @@
         <v>347</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H96" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>471</v>
@@ -5129,13 +5129,13 @@
         <v>351</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>471</v>
@@ -5161,13 +5161,13 @@
         <v>355</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>471</v>
@@ -5193,13 +5193,13 @@
         <v>358</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>471</v>
@@ -5225,19 +5225,19 @@
         <v>362</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5257,13 +5257,13 @@
         <v>366</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>473</v>
@@ -5289,19 +5289,19 @@
         <v>370</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5321,13 +5321,13 @@
         <v>374</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>473</v>
@@ -5353,19 +5353,19 @@
         <v>378</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -5385,13 +5385,13 @@
         <v>382</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>473</v>
@@ -5417,19 +5417,19 @@
         <v>386</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5449,19 +5449,19 @@
         <v>387</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5481,13 +5481,13 @@
         <v>391</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>471</v>
@@ -5513,19 +5513,19 @@
         <v>395</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5545,19 +5545,19 @@
         <v>399</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5577,13 +5577,13 @@
         <v>403</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>471</v>
@@ -5609,19 +5609,19 @@
         <v>407</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5641,19 +5641,19 @@
         <v>411</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5673,19 +5673,19 @@
         <v>415</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5705,19 +5705,19 @@
         <v>419</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5731,19 +5731,19 @@
         <v>245</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H116" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>471</v>
@@ -5763,19 +5763,19 @@
         <v>245</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H117" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>471</v>
@@ -5795,19 +5795,19 @@
         <v>245</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H118" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>471</v>
@@ -5833,13 +5833,13 @@
         <v>423</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>478</v>
@@ -5865,13 +5865,13 @@
         <v>427</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>480</v>
@@ -5897,16 +5897,16 @@
         <v>431</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>482</v>
@@ -5923,19 +5923,19 @@
         <v>8</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>485</v>
@@ -5955,19 +5955,19 @@
         <v>435</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F123" t="s">
+        <v>499</v>
+      </c>
+      <c r="G123" t="s">
+        <v>499</v>
+      </c>
+      <c r="H123" t="s">
         <v>500</v>
-      </c>
-      <c r="G123" t="s">
-        <v>500</v>
-      </c>
-      <c r="H123" t="s">
-        <v>501</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>488</v>
@@ -5987,19 +5987,19 @@
         <v>435</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F124" t="s">
+        <v>499</v>
+      </c>
+      <c r="G124" t="s">
         <v>500</v>
       </c>
-      <c r="G124" t="s">
-        <v>501</v>
-      </c>
       <c r="H124" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>491</v>
@@ -6019,19 +6019,19 @@
         <v>435</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F125" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G125" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H125" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>494</v>
@@ -6051,25 +6051,25 @@
         <v>435</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F126" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G126" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H126" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/foodList/foods_original.xlsx
+++ b/app/src/main/assets/foodList/foods_original.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="552">
   <si>
     <t>Food (English)</t>
   </si>
@@ -1358,18 +1358,12 @@
     <t>Carrot</t>
   </si>
   <si>
-    <t>Pumpin seeds</t>
-  </si>
-  <si>
     <t>Morning glory</t>
   </si>
   <si>
     <t>Amaranth</t>
   </si>
   <si>
-    <t>Pumpin leaves</t>
-  </si>
-  <si>
     <t>Buffalo/Cow Milk</t>
   </si>
   <si>
@@ -1611,6 +1605,93 @@
   </si>
   <si>
     <t>Remember to give me clean water! Remember the water must be boiled and then cooled down to room temperature. Readily available or filtered bottled water works as well!</t>
+  </si>
+  <si>
+    <t>french_fries.jpg</t>
+  </si>
+  <si>
+    <t>breastmilk.jpg</t>
+  </si>
+  <si>
+    <t>salt.jpg</t>
+  </si>
+  <si>
+    <t>honey.jpg</t>
+  </si>
+  <si>
+    <t>seasoning_glutamate.jpg</t>
+  </si>
+  <si>
+    <t>Pumpkin seeds</t>
+  </si>
+  <si>
+    <t>pumpkin_seeds.jpg</t>
+  </si>
+  <si>
+    <t>pork.jpg</t>
+  </si>
+  <si>
+    <t>fish.jpg</t>
+  </si>
+  <si>
+    <t>liver.jpg</t>
+  </si>
+  <si>
+    <t>morning_glory.jpg</t>
+  </si>
+  <si>
+    <t>amaranth.jpg</t>
+  </si>
+  <si>
+    <t>french_fries.m4a</t>
+  </si>
+  <si>
+    <t>buffalo_cow_milk.m4a</t>
+  </si>
+  <si>
+    <t>tea.m4a</t>
+  </si>
+  <si>
+    <t>water.m4a</t>
+  </si>
+  <si>
+    <t>sugar.m4a</t>
+  </si>
+  <si>
+    <t>seasoning.m4a</t>
+  </si>
+  <si>
+    <t>honey.m4a</t>
+  </si>
+  <si>
+    <t>pumpkin_seeds.m4a</t>
+  </si>
+  <si>
+    <t>crab.m4a</t>
+  </si>
+  <si>
+    <t>eggs.m4a</t>
+  </si>
+  <si>
+    <t>liver.m4a</t>
+  </si>
+  <si>
+    <t>carrot.m4a</t>
+  </si>
+  <si>
+    <t>morning_glory.m4a</t>
+  </si>
+  <si>
+    <t>amaranth.m4a</t>
+  </si>
+  <si>
+    <t>pumpkin_leaves.m4a</t>
+  </si>
+  <si>
+    <t>Pumpkin leaves</t>
+  </si>
+  <si>
+    <t>pumpkin_leaves.jpg</t>
   </si>
 </sst>
 </file>
@@ -1718,8 +1799,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J126" tableType="xml" totalsRowShown="0" headerRowDxfId="0" connectionId="4">
   <autoFilter ref="A1:J126"/>
-  <sortState ref="A2:I122">
-    <sortCondition ref="C1:C122"/>
+  <sortState ref="A2:J126">
+    <sortCondition ref="C1:C126"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="2" uniqueName="name" name="Food (English)">
@@ -2023,8 +2104,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,19 +2138,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2089,19 +2170,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2121,19 +2202,19 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2153,24 +2234,24 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -2185,19 +2266,19 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2217,19 +2298,19 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2249,19 +2330,19 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2281,1747 +2362,1747 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>424</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>425</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>518</v>
+        <v>478</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>481</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>523</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>535</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>518</v>
+        <v>483</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>420</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>421</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>423</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>518</v>
+        <v>476</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>442</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>485</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>514</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>499</v>
+        <v>536</v>
+      </c>
+      <c r="F13" t="s">
+        <v>497</v>
+      </c>
+      <c r="G13" t="s">
+        <v>497</v>
+      </c>
+      <c r="H13" t="s">
+        <v>498</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>518</v>
+        <v>486</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>488</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>524</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>499</v>
+      <c r="F14" t="s">
+        <v>497</v>
+      </c>
+      <c r="G14" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" t="s">
+        <v>498</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>518</v>
+        <v>489</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>444</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>491</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>507</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>499</v>
+        <v>537</v>
+      </c>
+      <c r="F15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G15" t="s">
+        <v>497</v>
+      </c>
+      <c r="H15" t="s">
+        <v>497</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>445</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>494</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>435</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>508</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>499</v>
+        <v>538</v>
+      </c>
+      <c r="F16" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" t="s">
+        <v>497</v>
+      </c>
+      <c r="H16" t="s">
+        <v>497</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>454</v>
+        <v>515</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>456</v>
+        <v>515</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>454</v>
+        <v>515</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>518</v>
+        <v>451</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>518</v>
+        <v>453</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>518</v>
+        <v>451</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>504</v>
+        <v>170</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>508</v>
+        <v>172</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>501</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>457</v>
+        <v>515</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>433</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>505</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>501</v>
+        <v>177</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>501</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>458</v>
+        <v>515</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>506</v>
+        <v>179</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>501</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>501</v>
+        <v>182</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>460</v>
+        <v>515</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>507</v>
+        <v>183</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>501</v>
+        <v>185</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>501</v>
+        <v>186</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>463</v>
+        <v>515</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>501</v>
+        <v>189</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>464</v>
+        <v>515</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>513</v>
+        <v>193</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>464</v>
+        <v>515</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>514</v>
+        <v>197</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>464</v>
+        <v>515</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>464</v>
+        <v>515</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>432</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>218</v>
+        <v>539</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4041,19 +4122,19 @@
         <v>223</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4073,19 +4154,19 @@
         <v>227</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4105,19 +4186,19 @@
         <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4137,19 +4218,19 @@
         <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4169,19 +4250,19 @@
         <v>239</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4201,1389 +4282,1389 @@
         <v>242</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>518</v>
+        <v>450</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>250</v>
+        <v>511</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>518</v>
+        <v>450</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>254</v>
+        <v>512</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>518</v>
+        <v>450</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>518</v>
+        <v>450</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>262</v>
+        <v>510</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>518</v>
+        <v>450</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>265</v>
+        <v>463</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>267</v>
+        <v>543</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>269</v>
+        <v>437</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>270</v>
+        <v>513</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>271</v>
+        <v>544</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>518</v>
+        <v>450</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>273</v>
+        <v>438</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>274</v>
+        <v>532</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>275</v>
+        <v>545</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>518</v>
+        <v>450</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>439</v>
+        <v>243</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>468</v>
+        <v>244</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>511</v>
+        <v>246</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>501</v>
+        <v>247</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>454</v>
+        <v>515</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>454</v>
+        <v>515</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>470</v>
+        <v>515</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>305</v>
+        <v>466</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>306</v>
+        <v>509</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>307</v>
+        <v>546</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>518</v>
+        <v>451</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>518</v>
+        <v>467</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>451</v>
+        <v>324</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>518</v>
+        <v>469</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>474</v>
+        <v>515</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>474</v>
+        <v>515</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>518</v>
+        <v>469</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>518</v>
+        <v>469</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>240</v>
+        <v>449</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>225</v>
+        <v>356</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>518</v>
+        <v>469</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>518</v>
+        <v>471</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>471</v>
@@ -5594,482 +5675,482 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>518</v>
+        <v>471</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>417</v>
+        <v>225</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>418</v>
+        <v>241</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>475</v>
+        <v>389</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>501</v>
+        <v>390</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>501</v>
+        <v>391</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>501</v>
+        <v>394</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>501</v>
+        <v>395</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>472</v>
+        <v>515</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>435</v>
+        <v>245</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>481</v>
+        <v>515</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>482</v>
+        <v>515</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>486</v>
+        <v>515</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>435</v>
+        <v>245</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F123" t="s">
-        <v>499</v>
-      </c>
-      <c r="G123" t="s">
-        <v>499</v>
-      </c>
-      <c r="H123" t="s">
-        <v>500</v>
+        <v>419</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>489</v>
+        <v>515</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>435</v>
+        <v>245</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F124" t="s">
-        <v>499</v>
-      </c>
-      <c r="G124" t="s">
-        <v>500</v>
-      </c>
-      <c r="H124" t="s">
-        <v>500</v>
+        <v>547</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>435</v>
+        <v>245</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F125" t="s">
-        <v>500</v>
-      </c>
-      <c r="G125" t="s">
-        <v>499</v>
-      </c>
-      <c r="H125" t="s">
-        <v>499</v>
+        <v>548</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>435</v>
+        <v>245</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F126" t="s">
-        <v>499</v>
-      </c>
-      <c r="G126" t="s">
-        <v>499</v>
-      </c>
-      <c r="H126" t="s">
-        <v>499</v>
+        <v>549</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/foodList/foods_original.xlsx
+++ b/app/src/main/assets/foodList/foods_original.xlsx
@@ -1505,9 +1505,6 @@
     <t>ទឹកដោះម្តាយ</t>
   </si>
   <si>
-    <t>Your're doing great! Continue to breastfeed me!</t>
-  </si>
-  <si>
     <t>ធ្វើបានល្អណាស់! សូមបន្តផ្តល់ការបំប៉ៅដោះដល់ខ្ញុំ</t>
   </si>
   <si>
@@ -1692,6 +1689,9 @@
   </si>
   <si>
     <t>pumpkin_leaves.jpg</t>
+  </si>
+  <si>
+    <t>You're doing great! Continue to breastfeed me!</t>
   </si>
 </sst>
 </file>
@@ -2104,8 +2104,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2170,19 +2170,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,19 +2202,19 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2234,24 +2234,24 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -2266,19 +2266,19 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2298,13 +2298,13 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>451</v>
@@ -2330,19 +2330,19 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2362,19 +2362,19 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,13 +2394,13 @@
         <v>427</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>478</v>
@@ -2426,16 +2426,16 @@
         <v>431</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>480</v>
@@ -2452,19 +2452,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>483</v>
@@ -2490,13 +2490,13 @@
         <v>423</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>476</v>
@@ -2516,19 +2516,19 @@
         <v>435</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F13" t="s">
+        <v>496</v>
+      </c>
+      <c r="G13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" t="s">
         <v>497</v>
-      </c>
-      <c r="G13" t="s">
-        <v>497</v>
-      </c>
-      <c r="H13" t="s">
-        <v>498</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>486</v>
@@ -2548,25 +2548,25 @@
         <v>435</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F14" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" t="s">
         <v>497</v>
       </c>
-      <c r="G14" t="s">
-        <v>498</v>
-      </c>
       <c r="H14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2574,31 +2574,31 @@
         <v>444</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2606,31 +2606,31 @@
         <v>445</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2650,19 +2650,19 @@
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2682,19 +2682,19 @@
         <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2714,19 +2714,19 @@
         <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2746,19 +2746,19 @@
         <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2778,19 +2778,19 @@
         <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2810,19 +2810,19 @@
         <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2842,19 +2842,19 @@
         <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,19 +2874,19 @@
         <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2906,19 +2906,19 @@
         <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,19 +2938,19 @@
         <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2970,19 +2970,19 @@
         <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3002,19 +3002,19 @@
         <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3034,19 +3034,19 @@
         <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3066,19 +3066,19 @@
         <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3098,19 +3098,19 @@
         <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3130,19 +3130,19 @@
         <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3162,13 +3162,13 @@
         <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>451</v>
@@ -3194,19 +3194,19 @@
         <v>106</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,13 +3226,13 @@
         <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>453</v>
@@ -3258,19 +3258,19 @@
         <v>113</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3290,19 +3290,19 @@
         <v>117</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,13 +3322,13 @@
         <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>451</v>
@@ -3354,19 +3354,19 @@
         <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3386,19 +3386,19 @@
         <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3418,19 +3418,19 @@
         <v>133</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3450,19 +3450,19 @@
         <v>137</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3482,19 +3482,19 @@
         <v>141</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3514,19 +3514,19 @@
         <v>145</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3546,19 +3546,19 @@
         <v>149</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3578,19 +3578,19 @@
         <v>153</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,19 +3610,19 @@
         <v>157</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3642,19 +3642,19 @@
         <v>161</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3674,19 +3674,19 @@
         <v>165</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3706,19 +3706,19 @@
         <v>169</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3738,19 +3738,19 @@
         <v>173</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3770,19 +3770,19 @@
         <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3802,19 +3802,19 @@
         <v>182</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3834,19 +3834,19 @@
         <v>186</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3866,19 +3866,19 @@
         <v>190</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3898,19 +3898,19 @@
         <v>194</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,19 +3930,19 @@
         <v>198</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3962,19 +3962,19 @@
         <v>202</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3982,28 +3982,28 @@
         <v>432</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>455</v>
@@ -4014,28 +4014,28 @@
         <v>433</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>456</v>
@@ -4046,25 +4046,25 @@
         <v>434</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>457</v>
@@ -4078,25 +4078,25 @@
         <v>459</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>460</v>
@@ -4122,13 +4122,13 @@
         <v>223</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>450</v>
@@ -4154,13 +4154,13 @@
         <v>227</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>450</v>
@@ -4186,13 +4186,13 @@
         <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>450</v>
@@ -4218,13 +4218,13 @@
         <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>450</v>
@@ -4250,13 +4250,13 @@
         <v>239</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>450</v>
@@ -4282,13 +4282,13 @@
         <v>242</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>450</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>465</v>
@@ -4308,19 +4308,19 @@
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>450</v>
@@ -4340,19 +4340,19 @@
         <v>205</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>450</v>
@@ -4372,19 +4372,19 @@
         <v>205</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>450</v>
@@ -4404,19 +4404,19 @@
         <v>205</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>450</v>
@@ -4436,19 +4436,19 @@
         <v>205</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>450</v>
@@ -4468,19 +4468,19 @@
         <v>205</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>450</v>
@@ -4500,22 +4500,22 @@
         <v>205</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>464</v>
@@ -4526,25 +4526,25 @@
         <v>437</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>450</v>
@@ -4558,25 +4558,25 @@
         <v>438</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>450</v>
@@ -4602,19 +4602,19 @@
         <v>247</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4634,19 +4634,19 @@
         <v>251</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4666,19 +4666,19 @@
         <v>255</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4698,19 +4698,19 @@
         <v>259</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4730,19 +4730,19 @@
         <v>263</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4762,19 +4762,19 @@
         <v>267</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4794,19 +4794,19 @@
         <v>271</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4826,19 +4826,19 @@
         <v>275</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4852,19 +4852,19 @@
         <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>451</v>
@@ -4890,19 +4890,19 @@
         <v>279</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4922,19 +4922,19 @@
         <v>283</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4954,13 +4954,13 @@
         <v>287</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H89" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>451</v>
@@ -4986,19 +4986,19 @@
         <v>291</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -5018,19 +5018,19 @@
         <v>295</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -5050,13 +5050,13 @@
         <v>299</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>467</v>
@@ -5082,19 +5082,19 @@
         <v>303</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -5114,13 +5114,13 @@
         <v>307</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>467</v>
@@ -5146,19 +5146,19 @@
         <v>311</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -5178,19 +5178,19 @@
         <v>315</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -5210,19 +5210,19 @@
         <v>319</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -5242,19 +5242,19 @@
         <v>323</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -5274,13 +5274,13 @@
         <v>327</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>469</v>
@@ -5306,13 +5306,13 @@
         <v>331</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>469</v>
@@ -5338,19 +5338,19 @@
         <v>335</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5370,19 +5370,19 @@
         <v>339</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -5402,19 +5402,19 @@
         <v>343</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -5434,13 +5434,13 @@
         <v>347</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>469</v>
@@ -5466,13 +5466,13 @@
         <v>351</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>469</v>
@@ -5498,13 +5498,13 @@
         <v>355</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>469</v>
@@ -5530,13 +5530,13 @@
         <v>358</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H107" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>469</v>
@@ -5562,19 +5562,19 @@
         <v>362</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5594,13 +5594,13 @@
         <v>366</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>471</v>
@@ -5626,19 +5626,19 @@
         <v>370</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -5658,13 +5658,13 @@
         <v>374</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>471</v>
@@ -5690,19 +5690,19 @@
         <v>378</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5722,13 +5722,13 @@
         <v>382</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>471</v>
@@ -5754,19 +5754,19 @@
         <v>386</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5786,19 +5786,19 @@
         <v>387</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5818,13 +5818,13 @@
         <v>391</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H116" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>469</v>
@@ -5850,19 +5850,19 @@
         <v>395</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -5882,19 +5882,19 @@
         <v>399</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -5914,13 +5914,13 @@
         <v>403</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H119" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>469</v>
@@ -5946,19 +5946,19 @@
         <v>407</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -5978,19 +5978,19 @@
         <v>411</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -6010,19 +6010,19 @@
         <v>415</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -6042,19 +6042,19 @@
         <v>419</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -6068,19 +6068,19 @@
         <v>245</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H124" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>469</v>
@@ -6100,19 +6100,19 @@
         <v>245</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H125" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>469</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>475</v>
@@ -6132,19 +6132,19 @@
         <v>245</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H126" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>469</v>

--- a/app/src/main/assets/foodList/foods_original.xlsx
+++ b/app/src/main/assets/foodList/foods_original.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="554">
   <si>
     <t>Food (English)</t>
   </si>
@@ -1532,9 +1532,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ស៊ុត</t>
   </si>
   <si>
@@ -1692,6 +1689,15 @@
   </si>
   <si>
     <t>You're doing great! Continue to breastfeed me!</t>
+  </si>
+  <si>
+    <t>breastmilk.m4a</t>
+  </si>
+  <si>
+    <t>crab.jpg</t>
+  </si>
+  <si>
+    <t>salt.m4a</t>
   </si>
 </sst>
 </file>
@@ -2104,24 +2110,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="81.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2179,13 +2185,13 @@
         <v>496</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2211,13 +2217,13 @@
         <v>496</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2243,15 +2249,15 @@
         <v>496</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -2275,13 +2281,13 @@
         <v>496</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2339,13 +2345,13 @@
         <v>496</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2371,13 +2377,13 @@
         <v>496</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>424</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>428</v>
       </c>
@@ -2435,13 +2441,13 @@
         <v>496</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>481</v>
       </c>
@@ -2452,10 +2458,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>497</v>
@@ -2473,7 +2479,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>420</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>442</v>
       </c>
@@ -2516,10 +2522,10 @@
         <v>435</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F13" t="s">
         <v>496</v>
@@ -2537,7 +2543,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>443</v>
       </c>
@@ -2548,10 +2554,10 @@
         <v>435</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="F14" t="s">
         <v>496</v>
@@ -2563,13 +2569,13 @@
         <v>497</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>444</v>
       </c>
@@ -2580,10 +2586,10 @@
         <v>435</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F15" t="s">
         <v>497</v>
@@ -2601,7 +2607,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>445</v>
       </c>
@@ -2612,10 +2618,10 @@
         <v>435</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F16" t="s">
         <v>496</v>
@@ -2627,13 +2633,13 @@
         <v>496</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2659,13 +2665,13 @@
         <v>496</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2691,13 +2697,13 @@
         <v>496</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -2723,13 +2729,13 @@
         <v>496</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2755,13 +2761,13 @@
         <v>496</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -2787,13 +2793,13 @@
         <v>496</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -2819,13 +2825,13 @@
         <v>496</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2851,13 +2857,13 @@
         <v>496</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -2883,13 +2889,13 @@
         <v>496</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -2915,13 +2921,13 @@
         <v>496</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2947,13 +2953,13 @@
         <v>496</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -2979,13 +2985,13 @@
         <v>496</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -3011,13 +3017,13 @@
         <v>496</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
@@ -3043,13 +3049,13 @@
         <v>496</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -3075,13 +3081,13 @@
         <v>496</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -3107,13 +3113,13 @@
         <v>496</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3139,13 +3145,13 @@
         <v>496</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>103</v>
       </c>
@@ -3203,13 +3209,13 @@
         <v>496</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -3267,13 +3273,13 @@
         <v>496</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
@@ -3299,13 +3305,13 @@
         <v>496</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
@@ -3363,13 +3369,13 @@
         <v>496</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
@@ -3395,13 +3401,13 @@
         <v>496</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>130</v>
       </c>
@@ -3427,13 +3433,13 @@
         <v>496</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>134</v>
       </c>
@@ -3459,13 +3465,13 @@
         <v>496</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
@@ -3491,13 +3497,13 @@
         <v>496</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
@@ -3523,13 +3529,13 @@
         <v>496</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>146</v>
       </c>
@@ -3555,13 +3561,13 @@
         <v>496</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>150</v>
       </c>
@@ -3587,13 +3593,13 @@
         <v>496</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>154</v>
       </c>
@@ -3619,13 +3625,13 @@
         <v>496</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>158</v>
       </c>
@@ -3651,13 +3657,13 @@
         <v>496</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>162</v>
       </c>
@@ -3683,13 +3689,13 @@
         <v>496</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>166</v>
       </c>
@@ -3715,13 +3721,13 @@
         <v>496</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>170</v>
       </c>
@@ -3747,13 +3753,13 @@
         <v>496</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>174</v>
       </c>
@@ -3779,13 +3785,13 @@
         <v>496</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -3811,13 +3817,13 @@
         <v>496</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>183</v>
       </c>
@@ -3843,13 +3849,13 @@
         <v>496</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>187</v>
       </c>
@@ -3875,13 +3881,13 @@
         <v>497</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>191</v>
       </c>
@@ -3907,13 +3913,13 @@
         <v>496</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>195</v>
       </c>
@@ -3939,13 +3945,13 @@
         <v>496</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>199</v>
       </c>
@@ -3971,27 +3977,27 @@
         <v>496</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>497</v>
@@ -4003,27 +4009,27 @@
         <v>496</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>497</v>
@@ -4035,27 +4041,27 @@
         <v>496</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>497</v>
@@ -4073,21 +4079,21 @@
         <v>458</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>497</v>
@@ -4105,7 +4111,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>224</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>228</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>232</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>236</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>240</v>
       </c>
@@ -4297,9 +4303,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>465</v>
@@ -4308,10 +4314,10 @@
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>496</v>
@@ -4329,7 +4335,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -4340,7 +4346,7 @@
         <v>205</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>206</v>
@@ -4361,7 +4367,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>207</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>205</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>209</v>
@@ -4393,7 +4399,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>210</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>205</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>212</v>
@@ -4425,7 +4431,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>213</v>
       </c>
@@ -4436,7 +4442,7 @@
         <v>205</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>215</v>
@@ -4457,7 +4463,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>216</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>205</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>218</v>
@@ -4489,7 +4495,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>436</v>
       </c>
@@ -4500,10 +4506,10 @@
         <v>205</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>497</v>
@@ -4515,27 +4521,27 @@
         <v>497</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>496</v>
@@ -4553,21 +4559,21 @@
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>496</v>
@@ -4585,7 +4591,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>243</v>
       </c>
@@ -4611,13 +4617,13 @@
         <v>496</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>248</v>
       </c>
@@ -4643,13 +4649,13 @@
         <v>496</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>252</v>
       </c>
@@ -4675,13 +4681,13 @@
         <v>496</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>256</v>
       </c>
@@ -4707,13 +4713,13 @@
         <v>496</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>260</v>
       </c>
@@ -4739,13 +4745,13 @@
         <v>496</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>264</v>
       </c>
@@ -4771,13 +4777,13 @@
         <v>496</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>268</v>
       </c>
@@ -4803,13 +4809,13 @@
         <v>496</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>272</v>
       </c>
@@ -4835,13 +4841,13 @@
         <v>496</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>439</v>
       </c>
@@ -4852,10 +4858,10 @@
         <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>496</v>
@@ -4873,7 +4879,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>276</v>
       </c>
@@ -4899,13 +4905,13 @@
         <v>496</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>280</v>
       </c>
@@ -4931,13 +4937,13 @@
         <v>496</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>284</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>288</v>
       </c>
@@ -4995,13 +5001,13 @@
         <v>496</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>292</v>
       </c>
@@ -5027,13 +5033,13 @@
         <v>496</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>296</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>300</v>
       </c>
@@ -5091,13 +5097,13 @@
         <v>496</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>304</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>308</v>
       </c>
@@ -5155,13 +5161,13 @@
         <v>496</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>312</v>
       </c>
@@ -5187,13 +5193,13 @@
         <v>496</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>316</v>
       </c>
@@ -5219,13 +5225,13 @@
         <v>496</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>320</v>
       </c>
@@ -5251,13 +5257,13 @@
         <v>496</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>324</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>328</v>
       </c>
@@ -5321,7 +5327,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>332</v>
       </c>
@@ -5347,13 +5353,13 @@
         <v>496</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>336</v>
       </c>
@@ -5379,13 +5385,13 @@
         <v>496</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>340</v>
       </c>
@@ -5411,13 +5417,13 @@
         <v>496</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>344</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>348</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>352</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>449</v>
       </c>
@@ -5545,7 +5551,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>359</v>
       </c>
@@ -5571,13 +5577,13 @@
         <v>496</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>363</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>367</v>
       </c>
@@ -5635,13 +5641,13 @@
         <v>496</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>371</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>375</v>
       </c>
@@ -5699,13 +5705,13 @@
         <v>496</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>379</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>383</v>
       </c>
@@ -5763,13 +5769,13 @@
         <v>496</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>240</v>
       </c>
@@ -5795,13 +5801,13 @@
         <v>496</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>388</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>392</v>
       </c>
@@ -5859,13 +5865,13 @@
         <v>496</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>396</v>
       </c>
@@ -5891,13 +5897,13 @@
         <v>496</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>400</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>404</v>
       </c>
@@ -5955,13 +5961,13 @@
         <v>496</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>408</v>
       </c>
@@ -5987,13 +5993,13 @@
         <v>496</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>412</v>
       </c>
@@ -6019,13 +6025,13 @@
         <v>496</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>416</v>
       </c>
@@ -6051,13 +6057,13 @@
         <v>496</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>440</v>
       </c>
@@ -6068,10 +6074,10 @@
         <v>245</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>496</v>
@@ -6089,7 +6095,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>441</v>
       </c>
@@ -6100,10 +6106,10 @@
         <v>245</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>496</v>
@@ -6121,9 +6127,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>475</v>
@@ -6132,10 +6138,10 @@
         <v>245</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>496</v>

--- a/app/src/main/assets/foodList/foods_original.xlsx
+++ b/app/src/main/assets/foodList/foods_original.xlsx
@@ -1313,9 +1313,6 @@
     <t>Khmer cakes</t>
   </si>
   <si>
-    <t>នំក្រូច</t>
-  </si>
-  <si>
     <t>coconut_rice_cake.jpg</t>
   </si>
   <si>
@@ -1325,9 +1322,6 @@
     <t>Crisps</t>
   </si>
   <si>
-    <t>នំំកញ្ចប់</t>
-  </si>
-  <si>
     <t>crisps.jpg</t>
   </si>
   <si>
@@ -1698,6 +1692,12 @@
   </si>
   <si>
     <t>salt.m4a</t>
+  </si>
+  <si>
+    <t>នំក្រួក</t>
+  </si>
+  <si>
+    <t>នំស្រួយៗ</t>
   </si>
 </sst>
 </file>
@@ -2110,8 +2110,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2144,19 +2144,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2176,19 +2176,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2205,22 +2205,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2237,27 +2237,27 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -2272,19 +2272,19 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2304,19 +2304,19 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2336,19 +2336,19 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2368,19 +2368,19 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2388,95 +2388,95 @@
         <v>424</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>425</v>
+        <v>552</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>429</v>
+        <v>553</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2487,7 +2487,7 @@
         <v>421</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>422</v>
@@ -2496,147 +2496,147 @@
         <v>423</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" t="s">
+        <v>494</v>
+      </c>
+      <c r="G13" t="s">
+        <v>494</v>
+      </c>
+      <c r="H13" t="s">
+        <v>495</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F13" t="s">
-        <v>496</v>
-      </c>
-      <c r="G13" t="s">
-        <v>496</v>
-      </c>
-      <c r="H13" t="s">
-        <v>497</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F15" t="s">
+        <v>495</v>
+      </c>
+      <c r="G15" t="s">
+        <v>494</v>
+      </c>
+      <c r="H15" t="s">
+        <v>494</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F15" t="s">
-        <v>497</v>
-      </c>
-      <c r="G15" t="s">
-        <v>496</v>
-      </c>
-      <c r="H15" t="s">
-        <v>496</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2656,19 +2656,19 @@
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2688,19 +2688,19 @@
         <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2720,19 +2720,19 @@
         <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2752,19 +2752,19 @@
         <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2784,19 +2784,19 @@
         <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2816,19 +2816,19 @@
         <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2848,19 +2848,19 @@
         <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2880,19 +2880,19 @@
         <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2912,19 +2912,19 @@
         <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2944,19 +2944,19 @@
         <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -2976,19 +2976,19 @@
         <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3008,19 +3008,19 @@
         <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3040,19 +3040,19 @@
         <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3072,19 +3072,19 @@
         <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3104,19 +3104,19 @@
         <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3136,19 +3136,19 @@
         <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3168,19 +3168,19 @@
         <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3200,19 +3200,19 @@
         <v>106</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3232,19 +3232,19 @@
         <v>110</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3264,19 +3264,19 @@
         <v>113</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3296,19 +3296,19 @@
         <v>117</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3328,19 +3328,19 @@
         <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3360,19 +3360,19 @@
         <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3392,19 +3392,19 @@
         <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3424,19 +3424,19 @@
         <v>133</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3456,19 +3456,19 @@
         <v>137</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3488,19 +3488,19 @@
         <v>141</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3520,19 +3520,19 @@
         <v>145</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3552,19 +3552,19 @@
         <v>149</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3584,19 +3584,19 @@
         <v>153</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3616,19 +3616,19 @@
         <v>157</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3648,19 +3648,19 @@
         <v>161</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3680,19 +3680,19 @@
         <v>165</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3712,19 +3712,19 @@
         <v>169</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3744,19 +3744,19 @@
         <v>173</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3776,19 +3776,19 @@
         <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3808,19 +3808,19 @@
         <v>182</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3840,19 +3840,19 @@
         <v>186</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3872,19 +3872,19 @@
         <v>190</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3904,19 +3904,19 @@
         <v>194</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3936,19 +3936,19 @@
         <v>198</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -3968,147 +3968,147 @@
         <v>202</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4128,19 +4128,19 @@
         <v>223</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4160,19 +4160,19 @@
         <v>227</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4192,19 +4192,19 @@
         <v>231</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4224,19 +4224,19 @@
         <v>235</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4256,19 +4256,19 @@
         <v>239</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4288,51 +4288,51 @@
         <v>242</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4346,25 +4346,25 @@
         <v>205</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4378,25 +4378,25 @@
         <v>205</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4410,25 +4410,25 @@
         <v>205</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4442,25 +4442,25 @@
         <v>205</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4474,121 +4474,121 @@
         <v>205</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4608,19 +4608,19 @@
         <v>247</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4640,19 +4640,19 @@
         <v>251</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4672,19 +4672,19 @@
         <v>255</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4704,19 +4704,19 @@
         <v>259</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4736,19 +4736,19 @@
         <v>263</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4768,19 +4768,19 @@
         <v>267</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4800,19 +4800,19 @@
         <v>271</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4832,51 +4832,51 @@
         <v>275</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4896,19 +4896,19 @@
         <v>279</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4928,19 +4928,19 @@
         <v>283</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4960,19 +4960,19 @@
         <v>287</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4992,19 +4992,19 @@
         <v>291</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5024,19 +5024,19 @@
         <v>295</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5056,19 +5056,19 @@
         <v>299</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5088,19 +5088,19 @@
         <v>303</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5120,19 +5120,19 @@
         <v>307</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5152,19 +5152,19 @@
         <v>311</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5184,19 +5184,19 @@
         <v>315</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5216,19 +5216,19 @@
         <v>319</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5248,19 +5248,19 @@
         <v>323</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5280,19 +5280,19 @@
         <v>327</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5312,19 +5312,19 @@
         <v>331</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5344,19 +5344,19 @@
         <v>335</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5376,19 +5376,19 @@
         <v>339</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5408,19 +5408,19 @@
         <v>343</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5440,19 +5440,19 @@
         <v>347</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5472,19 +5472,19 @@
         <v>351</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5504,24 +5504,24 @@
         <v>355</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>356</v>
@@ -5536,19 +5536,19 @@
         <v>358</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5568,19 +5568,19 @@
         <v>362</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5600,19 +5600,19 @@
         <v>366</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5632,19 +5632,19 @@
         <v>370</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5664,19 +5664,19 @@
         <v>374</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5696,19 +5696,19 @@
         <v>378</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5728,19 +5728,19 @@
         <v>382</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5760,19 +5760,19 @@
         <v>386</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5792,19 +5792,19 @@
         <v>387</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5824,19 +5824,19 @@
         <v>391</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5856,19 +5856,19 @@
         <v>395</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5888,19 +5888,19 @@
         <v>399</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5920,19 +5920,19 @@
         <v>403</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5952,19 +5952,19 @@
         <v>407</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5984,19 +5984,19 @@
         <v>411</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6016,19 +6016,19 @@
         <v>415</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6048,115 +6048,115 @@
         <v>419</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
